--- a/1 (1).xlsx
+++ b/1 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSComarch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83E9A5E-6186-4E89-BB97-A77946FDCBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9883A2F8-D427-4297-A653-056821DC2892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="0" windowWidth="27195" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1190,6 +1190,14 @@
       <c r="G14" s="8">
         <v>350</v>
       </c>
+      <c r="Q14" s="1" t="str" cm="1">
+        <f t="array" ref="Q14">INDEX($D:$D,MATCH(MAX(IF($E:$E="West",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="Northeast",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="South",$G:$G)),$G:$G,0))</f>
+        <v>Carol Shaw – Ada Lovelace – Hedy Lamarr</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="6">
@@ -1207,6 +1215,14 @@
       <c r="G15" s="8">
         <v>400</v>
       </c>
+      <c r="Q15" s="1" t="str" cm="1">
+        <f t="array" ref="Q15">INDEX($D:$D,MATCH(MAX(IF($E:$E="West",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="Northeast",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="South",$G:$G)),$G:$G,0))</f>
+        <v>Carol Shaw – Ada Lovelace – Hedy Lamarr</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="6">
@@ -1224,8 +1240,16 @@
       <c r="G16" s="8">
         <v>550</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1" t="str" cm="1">
+        <f t="array" ref="Q16">INDEX($D:$D,MATCH(MAX(IF($E:$E="West",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="Northeast",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="South",$G:$G)),$G:$G,0))</f>
+        <v>Carol Shaw – Ada Lovelace – Hedy Lamarr</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="6">
         <v>12</v>
       </c>
@@ -1241,8 +1265,16 @@
       <c r="G17" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1" t="str" cm="1">
+        <f t="array" ref="Q17">INDEX($D:$D,MATCH(MAX(IF($E:$E="West",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="Northeast",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="South",$G:$G)),$G:$G,0))</f>
+        <v>Carol Shaw – Ada Lovelace – Hedy Lamarr</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="6">
         <v>13</v>
       </c>
@@ -1258,8 +1290,16 @@
       <c r="G18" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1" t="str" cm="1">
+        <f t="array" ref="Q18">INDEX($D:$D,MATCH(MAX(IF($E:$E="West",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="Northeast",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="South",$G:$G)),$G:$G,0))</f>
+        <v>Carol Shaw – Ada Lovelace – Hedy Lamarr</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6">
         <v>14</v>
       </c>
@@ -1275,8 +1315,16 @@
       <c r="G19" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1" t="str" cm="1">
+        <f t="array" ref="Q19">INDEX($D:$D,MATCH(MAX(IF($E:$E="West",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="Northeast",$G:$G)),$G:$G,0))
+&amp;" – "&amp;
+INDEX($D:$D,MATCH(MAX(IF($E:$E="South",$G:$G)),$G:$G,0))</f>
+        <v>Carol Shaw – Ada Lovelace – Hedy Lamarr</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="6">
         <v>15</v>
       </c>
@@ -1293,7 +1341,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="6">
         <v>16</v>
       </c>
@@ -1310,7 +1358,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6">
         <v>17</v>
       </c>
@@ -1327,7 +1375,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="6">
         <v>18</v>
       </c>
@@ -1344,7 +1392,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6">
         <v>19</v>
       </c>
@@ -1361,7 +1409,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="6">
         <v>20</v>
       </c>
@@ -1378,7 +1426,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6">
         <v>21</v>
       </c>
@@ -1395,7 +1443,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="6">
         <v>22</v>
       </c>
@@ -1412,7 +1460,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="6">
         <v>23</v>
       </c>
@@ -1429,7 +1477,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="6">
         <v>24</v>
       </c>
@@ -1446,7 +1494,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="6">
         <v>25</v>
       </c>
@@ -1463,7 +1511,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="6">
         <v>26</v>
       </c>
@@ -1480,7 +1528,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="6">
         <v>27</v>
       </c>

--- a/1 (1).xlsx
+++ b/1 (1).xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSComarch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9883A2F8-D427-4297-A653-056821DC2892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936A54B5-B719-4C21-85E3-4C53C3B870FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="0" windowWidth="27195" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>Salesperson</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Who is the Top Salesperson in each Region ?</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -751,6 +754,13 @@
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="O2" s="1">
+        <f>COUNTIF('Clean Data'!$E$6:$E$35,$O$9)</f>
+        <v>11</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="T2" s="1">
         <f>MAX($R$6:$R$100)</f>
         <v>0</v>
@@ -969,7 +979,52 @@
       <c r="J9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="14"/>
+      <c r="O9" s="1" t="str">
+        <f t="array" ref="O9">IFERROR(
+  INDEX('Clean Data'!$E$6:$E$35,
+    _xlfn.AGGREGATE(
+      15,6,
+      (ROW('Clean Data'!$E$6:$E$35)-ROW('Clean Data'!$E$6)+1) /
+      (MATCH('Clean Data'!$E$6:$E$35,'Clean Data'!$E$6:$E$35,0)
+         =ROW('Clean Data'!$E$6:$E$35)-ROW('Clean Data'!$E$6)+1),
+      ROW(A1)
+    )
+  ),
+"")</f>
+        <v>Northeast</v>
+      </c>
+      <c r="P9" s="14" t="str">
+        <f t="array" aca="1" ref="P9" ca="1">IFERROR(
+  INDEX('Clean Data'!$D$6:$D$35,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) /
+      (
+        ('Clean Data'!$E$6:$E$35=$O$9) *
+        (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+           =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+        (
+          SUMIFS('Clean Data'!$G$6:$G$35,
+                         'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                         'Clean Data'!$E$6:$E$35,$O$9)
+          =
+          MAKS(
+            IF('Clean Data'!$E$6:$E$35=$O$9,
+              (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+                 =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+              SUMIFS('Clean Data'!$G$6:$G$35,
+                             'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                             'Clean Data'!$E$6:$E$35,$O$9)
+            )
+          )
+        )
+      ),
+      ROW(A1)
+    )
+  ),
+"")</f>
+        <v/>
+      </c>
       <c r="Q9" s="1" t="str" cm="1">
         <f t="array" ref="Q9">IFERROR(
   INDEX($D$6:$D$100,
@@ -1016,24 +1071,86 @@
       <c r="G10" s="8">
         <v>450</v>
       </c>
-      <c r="Q10" s="1" t="str" cm="1">
-        <f t="array" ref="Q10">IFERROR(
-  INDEX($D$6:$D$100,
-    _xlfn.AGGREGATE(
-      15, 6,
-      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      <c r="O10" s="1" t="str">
+        <f t="array" ref="O10">IFERROR(
+  INDEX('Clean Data'!$E$6:$E$35,
+    _xlfn.AGGREGATE(
+      15,6,
+      (ROW('Clean Data'!$E$6:$E$35)-ROW('Clean Data'!$E$6)+1) /
+      (MATCH('Clean Data'!$E$6:$E$35,'Clean Data'!$E$6:$E$35,0)
+         =ROW('Clean Data'!$E$6:$E$35)-ROW('Clean Data'!$E$6)+1),
+      ROW(A2)
+    )
+  ),
+"")</f>
+        <v>West</v>
+      </c>
+      <c r="P10" s="14" t="str">
+        <f t="array" aca="1" ref="P10" ca="1">IFERROR(
+  INDEX('Clean Data'!$D$6:$D$35,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) /
       (
-        ($E$6:$E$100=$J$2) *
-        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+        ('Clean Data'!$E$6:$E$35=$O$9) *
+        (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+           =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+        (
+          SUMIFS('Clean Data'!$G$6:$G$35,
+                         'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                         'Clean Data'!$E$6:$E$35,$O$9)
+          =
+          MAKS(
+            IF('Clean Data'!$E$6:$E$35=$O$9,
+              (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+                 =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+              SUMIFS('Clean Data'!$G$6:$G$35,
+                             'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                             'Clean Data'!$E$6:$E$35,$O$9)
+            )
+          )
+        )
       ),
-      ROW(A5)
-    )
-  ),
-"")</f>
-        <v>Claude Shannon</v>
+      ROW(A2)
+    )
+  ),
+"")</f>
+        <v/>
+      </c>
+      <c r="Q10" s="14" t="str">
+        <f t="array" aca="1" ref="Q10" ca="1">IFERROR(
+  INDEX('Clean Data'!$D$6:$D$35,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) /
+      (
+        ('Clean Data'!$E$6:$E$35=$O$9) *
+        (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+           =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+        (
+          SUMIFS('Clean Data'!$G$6:$G$35,
+                         'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                         'Clean Data'!$E$6:$E$35,$O$9)
+          =
+          MAKS(
+            IF('Clean Data'!$E$6:$E$35=$O$9,
+              (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+                 =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+              SUMIFS('Clean Data'!$G$6:$G$35,
+                             'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                             'Clean Data'!$E$6:$E$35,$O$9)
+            )
+          )
+        )
+      ),
+      ROW(B2)
+    )
+  ),
+"")</f>
+        <v/>
       </c>
       <c r="U10" s="1" t="str" cm="1">
-        <f t="array" ref="U10">IFERROR(
+        <f t="array" aca="1" ref="U10" ca="1">IFERROR(
   INDEX($Q$6:$Q$100,
     _xlfn.AGGREGATE(
       15, 6,
@@ -1043,7 +1160,7 @@
     )
   ),
 "")</f>
-        <v>Claude Shannon</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1063,6 +1180,52 @@
         <v>400</v>
       </c>
       <c r="K11" s="11"/>
+      <c r="O11" s="1" t="str">
+        <f t="array" ref="O11">IFERROR(
+  INDEX('Clean Data'!$E$6:$E$35,
+    _xlfn.AGGREGATE(
+      15,6,
+      (ROW('Clean Data'!$E$6:$E$35)-ROW('Clean Data'!$E$6)+1) /
+      (MATCH('Clean Data'!$E$6:$E$35,'Clean Data'!$E$6:$E$35,0)
+         =ROW('Clean Data'!$E$6:$E$35)-ROW('Clean Data'!$E$6)+1),
+      ROW(A3)
+    )
+  ),
+"")</f>
+        <v>South</v>
+      </c>
+      <c r="P11" s="14" t="str">
+        <f t="array" aca="1" ref="P11" ca="1">IFERROR(
+  INDEX('Clean Data'!$D$6:$D$35,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) /
+      (
+        ('Clean Data'!$E$6:$E$35=$O$9) *
+        (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+           =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+        (
+          SUMIFS('Clean Data'!$G$6:$G$35,
+                         'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                         'Clean Data'!$E$6:$E$35,$O$9)
+          =
+          MAKS(
+            IF('Clean Data'!$E$6:$E$35=$O$9,
+              (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+                 =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+              SUMIFS('Clean Data'!$G$6:$G$35,
+                             'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                             'Clean Data'!$E$6:$E$35,$O$9)
+            )
+          )
+        )
+      ),
+      ROW(A3)
+    )
+  ),
+"")</f>
+        <v/>
+      </c>
       <c r="Q11" s="1" t="str" cm="1">
         <f t="array" ref="Q11">IFERROR(
   INDEX($D$6:$D$100,
@@ -1110,6 +1273,38 @@
         <v>600</v>
       </c>
       <c r="K12" s="11"/>
+      <c r="P12" s="14" t="str">
+        <f t="array" aca="1" ref="P12" ca="1">IFERROR(
+  INDEX('Clean Data'!$D$6:$D$35,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) /
+      (
+        ('Clean Data'!$E$6:$E$35=$O$9) *
+        (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+           =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+        (
+          SUMIFS('Clean Data'!$G$6:$G$35,
+                         'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                         'Clean Data'!$E$6:$E$35,$O$9)
+          =
+          MAKS(
+            IF('Clean Data'!$E$6:$E$35=$O$9,
+              (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+                 =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+              SUMIFS('Clean Data'!$G$6:$G$35,
+                             'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                             'Clean Data'!$E$6:$E$35,$O$9)
+            )
+          )
+        )
+      ),
+      ROW(A4)
+    )
+  ),
+"")</f>
+        <v/>
+      </c>
       <c r="Q12" s="1" t="str" cm="1">
         <f t="array" ref="Q12">IFERROR(
   INDEX($D$6:$D$100,
@@ -1157,6 +1352,38 @@
         <v>650</v>
       </c>
       <c r="K13" s="11"/>
+      <c r="P13" s="14" t="str">
+        <f t="array" aca="1" ref="P13" ca="1">IFERROR(
+  INDEX('Clean Data'!$D$6:$D$35,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) /
+      (
+        ('Clean Data'!$E$6:$E$35=$O$9) *
+        (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+           =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+        (
+          SUMIFS('Clean Data'!$G$6:$G$35,
+                         'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                         'Clean Data'!$E$6:$E$35,$O$9)
+          =
+          MAKS(
+            IF('Clean Data'!$E$6:$E$35=$O$9,
+              (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+                 =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+              SUMIFS('Clean Data'!$G$6:$G$35,
+                             'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                             'Clean Data'!$E$6:$E$35,$O$9)
+            )
+          )
+        )
+      ),
+      ROW(A5)
+    )
+  ),
+"")</f>
+        <v/>
+      </c>
       <c r="Q13" s="1" t="str" cm="1">
         <f t="array" ref="Q13">IFERROR(
   INDEX($D$6:$D$100,
@@ -1189,6 +1416,38 @@
       </c>
       <c r="G14" s="8">
         <v>350</v>
+      </c>
+      <c r="P14" s="14" t="str">
+        <f t="array" aca="1" ref="P14" ca="1">IFERROR(
+  INDEX('Clean Data'!$D$6:$D$35,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) /
+      (
+        ('Clean Data'!$E$6:$E$35=$O$9) *
+        (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+           =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+        (
+          SUMIFS('Clean Data'!$G$6:$G$35,
+                         'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                         'Clean Data'!$E$6:$E$35,$O$9)
+          =
+          MAKS(
+            IF('Clean Data'!$E$6:$E$35=$O$9,
+              (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+                 =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+              SUMIFS('Clean Data'!$G$6:$G$35,
+                             'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                             'Clean Data'!$E$6:$E$35,$O$9)
+            )
+          )
+        )
+      ),
+      ROW(A6)
+    )
+  ),
+"")</f>
+        <v/>
       </c>
       <c r="Q14" s="1" t="str" cm="1">
         <f t="array" ref="Q14">INDEX($D:$D,MATCH(MAX(IF($E:$E="West",$G:$G)),$G:$G,0))
@@ -1215,6 +1474,38 @@
       <c r="G15" s="8">
         <v>400</v>
       </c>
+      <c r="P15" s="14" t="str">
+        <f t="array" aca="1" ref="P15" ca="1">IFERROR(
+  INDEX('Clean Data'!$D$6:$D$35,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) /
+      (
+        ('Clean Data'!$E$6:$E$35=$O$9) *
+        (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+           =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+        (
+          SUMIFS('Clean Data'!$G$6:$G$35,
+                         'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                         'Clean Data'!$E$6:$E$35,$O$9)
+          =
+          MAKS(
+            IF('Clean Data'!$E$6:$E$35=$O$9,
+              (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+                 =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+              SUMIFS('Clean Data'!$G$6:$G$35,
+                             'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                             'Clean Data'!$E$6:$E$35,$O$9)
+            )
+          )
+        )
+      ),
+      ROW(A7)
+    )
+  ),
+"")</f>
+        <v/>
+      </c>
       <c r="Q15" s="1" t="str" cm="1">
         <f t="array" ref="Q15">INDEX($D:$D,MATCH(MAX(IF($E:$E="West",$G:$G)),$G:$G,0))
 &amp;" – "&amp;
@@ -1239,6 +1530,38 @@
       </c>
       <c r="G16" s="8">
         <v>550</v>
+      </c>
+      <c r="P16" s="14" t="str">
+        <f t="array" aca="1" ref="P16" ca="1">IFERROR(
+  INDEX('Clean Data'!$D$6:$D$35,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) /
+      (
+        ('Clean Data'!$E$6:$E$35=$O$9) *
+        (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+           =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+        (
+          SUMIFS('Clean Data'!$G$6:$G$35,
+                         'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                         'Clean Data'!$E$6:$E$35,$O$9)
+          =
+          MAKS(
+            IF('Clean Data'!$E$6:$E$35=$O$9,
+              (MATCH('Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,0)
+                 =ROW('Clean Data'!$D$6:$D$35)-ROW('Clean Data'!$D$6)+1) *
+              SUMIFS('Clean Data'!$G$6:$G$35,
+                             'Clean Data'!$D$6:$D$35,'Clean Data'!$D$6:$D$35,
+                             'Clean Data'!$E$6:$E$35,$O$9)
+            )
+          )
+        )
+      ),
+      ROW(A8)
+    )
+  ),
+"")</f>
+        <v/>
       </c>
       <c r="Q16" s="1" t="str" cm="1">
         <f t="array" ref="Q16">INDEX($D:$D,MATCH(MAX(IF($E:$E="West",$G:$G)),$G:$G,0))
